--- a/src/assets/TracksId.xlsx
+++ b/src/assets/TracksId.xlsx
@@ -443,259 +443,259 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1bOxv1BcxwZVHCxc6MnYUC</t>
+          <t>4vCVkfY7ZY0UnjB8eF0lEM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6HvTCzMlOAFgUjb7ys2AjU</t>
+          <t>5P2Ghhv0wFYThHfDQaS0g5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5LKm2vMBOtKq12C0padpN2</t>
+          <t>507syMUPwrpOJIxSnNYPOi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3SGP8It5WDnCONyApJKRTJ</t>
+          <t>5kl5LYhWPeKW5dgf8NO84p</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5gxIJq36ODYOpBECJkHrar</t>
+          <t>0xv6NzfBHZhbZ5MWLzdh3T</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>53OUBSsdeNaLWBlJgsCmCf</t>
+          <t>4ToEmT48oPH5erDitBeYf6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>45SsRch1IwEzLcKHyataEE</t>
+          <t>6M0tKLVH56wlV7WEo9bgf1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5EWPGh7jbTNO2wakv8LjUI</t>
+          <t>6uQ15UwuRKIgUJQakgkYtZ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0ulqhE1zuEqnaZnzWWt6yS</t>
+          <t>5cMNQ2LmvEBTUL0ZKdxtPl</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1oacjZb8pH6OmGQGAbMkso</t>
+          <t>3SGP8It5WDnCONyApJKRTJ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6ffUjpr83utMRU2X4BDu63</t>
+          <t>6jCA4rJ4caeRuyTxvf9UvA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4Eplwbe3QXUqLpoBnw2p5X</t>
+          <t>4G0Y6KN7s7kBuqTlKxpupa</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5P2Ghhv0wFYThHfDQaS0g5</t>
+          <t>1bOxv1BcxwZVHCxc6MnYUC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1lWVWoreT4vPIEedV1XoNS</t>
+          <t>3ST1SVHTxxiGodhUeASN3h</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55iQHZagcmOB87YMs3q6Dj</t>
+          <t>1VRnW4Qk8PP3EGGFMs6Z32</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0OVMtCCfQvkO1oXigmM2d8</t>
+          <t>5XVjNRubJUW0iPhhSWpLCj</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2HjaUtSMTcyn6orIglDwch</t>
+          <t>6knUv7a6SfLhaUqjwUiawM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6M0tKLVH56wlV7WEo9bgf1</t>
+          <t>5QtTDsBX5SbyKzemDMAPZY</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3CnJjMs2MmvCHd7PYxGXKM</t>
+          <t>2HjaUtSMTcyn6orIglDwch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2374M0fQpWi3dLnB54qaLX</t>
+          <t>1lWVWoreT4vPIEedV1XoNS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6uQ15UwuRKIgUJQakgkYtZ</t>
+          <t>1Jaah2tmN9Hv81A87KZ1MU</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>75apuD4FSexqsVIVE6czFc</t>
+          <t>6ADSaE87h8Y3lccZlBJdXH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>507syMUPwrpOJIxSnNYPOi</t>
+          <t>4Eplwbe3QXUqLpoBnw2p5X</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6jCA4rJ4caeRuyTxvf9UvA</t>
+          <t>1yqM5O07lL7R6UAdK5jvrR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2VIe2TAMhIRhVwsOmo1cSs</t>
+          <t>6ffUjpr83utMRU2X4BDu63</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1Jaah2tmN9Hv81A87KZ1MU</t>
+          <t>6xdLJrVj4vIXwhuG8TMopk</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5UQiOGk3n63zuv4LgNRFX7</t>
+          <t>55iQHZagcmOB87YMs3q6Dj</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5QtTDsBX5SbyKzemDMAPZY</t>
+          <t>45SsRch1IwEzLcKHyataEE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5kl5LYhWPeKW5dgf8NO84p</t>
+          <t>5LKm2vMBOtKq12C0padpN2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5MFR2Gq7oBZvTjxdCp8WJc</t>
+          <t>5EWPGh7jbTNO2wakv8LjUI</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1VRnW4Qk8PP3EGGFMs6Z32</t>
+          <t>2374M0fQpWi3dLnB54qaLX</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>02zclmxRto3GAUBdtV7D8i</t>
+          <t>0OVMtCCfQvkO1oXigmM2d8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4ToEmT48oPH5erDitBeYf6</t>
+          <t>1oacjZb8pH6OmGQGAbMkso</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1Al5oQQmZ9Gk4GzgvTInZV</t>
+          <t>5UQiOGk3n63zuv4LgNRFX7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1oMUYmXy85ZOQGZ2fylBiN</t>
+          <t>5MFR2Gq7oBZvTjxdCp8WJc</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4YXhOackOMOlQTMAwsDHo6</t>
+          <t>147gCksvDRmjG1pO51ZCcf</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4G0Y6KN7s7kBuqTlKxpupa</t>
+          <t>75apuD4FSexqsVIVE6czFc</t>
         </is>
       </c>
     </row>
@@ -709,70 +709,70 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1yqM5O07lL7R6UAdK5jvrR</t>
+          <t>1oMUYmXy85ZOQGZ2fylBiN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3IRg7GJWAq574gJ4KtO7xA</t>
+          <t>53OUBSsdeNaLWBlJgsCmCf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>57iDDD9N9tTWe75x6qhStw</t>
+          <t>6bKdh1YoDfUMe4mx8mZ3D1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>147gCksvDRmjG1pO51ZCcf</t>
+          <t>4jnhCiVeFkepeo6O52e5sN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4jnhCiVeFkepeo6O52e5sN</t>
+          <t>0ulqhE1zuEqnaZnzWWt6yS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5XVjNRubJUW0iPhhSWpLCj</t>
+          <t>3IRg7GJWAq574gJ4KtO7xA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7LFFCnMlXWW2C17kPCmr8Y</t>
+          <t>5gxIJq36ODYOpBECJkHrar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6bKdh1YoDfUMe4mx8mZ3D1</t>
+          <t>02zclmxRto3GAUBdtV7D8i</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6xdLJrVj4vIXwhuG8TMopk</t>
+          <t>2VIe2TAMhIRhVwsOmo1cSs</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6ADSaE87h8Y3lccZlBJdXH</t>
+          <t>57iDDD9N9tTWe75x6qhStw</t>
         </is>
       </c>
     </row>

--- a/src/assets/TracksId.xlsx
+++ b/src/assets/TracksId.xlsx
@@ -443,336 +443,336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4vCVkfY7ZY0UnjB8eF0lEM</t>
+          <t>507syMUPwrpOJIxSnNYPOi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5P2Ghhv0wFYThHfDQaS0g5</t>
+          <t>57iDDD9N9tTWe75x6qhStw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>507syMUPwrpOJIxSnNYPOi</t>
+          <t>5EWPGh7jbTNO2wakv8LjUI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5kl5LYhWPeKW5dgf8NO84p</t>
+          <t>13aPCea9kYDz0OYYnv1F7D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0xv6NzfBHZhbZ5MWLzdh3T</t>
+          <t>3SGP8It5WDnCONyApJKRTJ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4ToEmT48oPH5erDitBeYf6</t>
+          <t>0xv6NzfBHZhbZ5MWLzdh3T</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6M0tKLVH56wlV7WEo9bgf1</t>
+          <t>6xdLJrVj4vIXwhuG8TMopk</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6uQ15UwuRKIgUJQakgkYtZ</t>
+          <t>2374M0fQpWi3dLnB54qaLX</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5cMNQ2LmvEBTUL0ZKdxtPl</t>
+          <t>2VIe2TAMhIRhVwsOmo1cSs</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3SGP8It5WDnCONyApJKRTJ</t>
+          <t>5LKm2vMBOtKq12C0padpN2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6jCA4rJ4caeRuyTxvf9UvA</t>
+          <t>55iQHZagcmOB87YMs3q6Dj</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4G0Y6KN7s7kBuqTlKxpupa</t>
+          <t>1bOxv1BcxwZVHCxc6MnYUC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1bOxv1BcxwZVHCxc6MnYUC</t>
+          <t>5gxIJq36ODYOpBECJkHrar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3ST1SVHTxxiGodhUeASN3h</t>
+          <t>6ADSaE87h8Y3lccZlBJdXH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1VRnW4Qk8PP3EGGFMs6Z32</t>
+          <t>5MFR2Gq7oBZvTjxdCp8WJc</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5XVjNRubJUW0iPhhSWpLCj</t>
+          <t>5UQiOGk3n63zuv4LgNRFX7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6knUv7a6SfLhaUqjwUiawM</t>
+          <t>5P2Ghhv0wFYThHfDQaS0g5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5QtTDsBX5SbyKzemDMAPZY</t>
+          <t>6Nm8h73ycDG2saCnZV8poF</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2HjaUtSMTcyn6orIglDwch</t>
+          <t>75apuD4FSexqsVIVE6czFc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1lWVWoreT4vPIEedV1XoNS</t>
+          <t>53OUBSsdeNaLWBlJgsCmCf</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1Jaah2tmN9Hv81A87KZ1MU</t>
+          <t>1oMUYmXy85ZOQGZ2fylBiN</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6ADSaE87h8Y3lccZlBJdXH</t>
+          <t>147gCksvDRmjG1pO51ZCcf</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4Eplwbe3QXUqLpoBnw2p5X</t>
+          <t>6jCA4rJ4caeRuyTxvf9UvA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1yqM5O07lL7R6UAdK5jvrR</t>
+          <t>3IWS0nL3CWefCrpremoDUJ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6ffUjpr83utMRU2X4BDu63</t>
+          <t>4Eplwbe3QXUqLpoBnw2p5X</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6xdLJrVj4vIXwhuG8TMopk</t>
+          <t>5cMNQ2LmvEBTUL0ZKdxtPl</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>55iQHZagcmOB87YMs3q6Dj</t>
+          <t>0OVMtCCfQvkO1oXigmM2d8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>45SsRch1IwEzLcKHyataEE</t>
+          <t>6ffUjpr83utMRU2X4BDu63</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5LKm2vMBOtKq12C0padpN2</t>
+          <t>4vCVkfY7ZY0UnjB8eF0lEM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5EWPGh7jbTNO2wakv8LjUI</t>
+          <t>4jnhCiVeFkepeo6O52e5sN</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2374M0fQpWi3dLnB54qaLX</t>
+          <t>5QtTDsBX5SbyKzemDMAPZY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0OVMtCCfQvkO1oXigmM2d8</t>
+          <t>2HjaUtSMTcyn6orIglDwch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1oacjZb8pH6OmGQGAbMkso</t>
+          <t>45SsRch1IwEzLcKHyataEE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5UQiOGk3n63zuv4LgNRFX7</t>
+          <t>1Jaah2tmN9Hv81A87KZ1MU</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5MFR2Gq7oBZvTjxdCp8WJc</t>
+          <t>1yqM5O07lL7R6UAdK5jvrR</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>147gCksvDRmjG1pO51ZCcf</t>
+          <t>4G0Y6KN7s7kBuqTlKxpupa</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>75apuD4FSexqsVIVE6czFc</t>
+          <t>6knUv7a6SfLhaUqjwUiawM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13aPCea9kYDz0OYYnv1F7D</t>
+          <t>6M0tKLVH56wlV7WEo9bgf1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1oMUYmXy85ZOQGZ2fylBiN</t>
+          <t>0ulqhE1zuEqnaZnzWWt6yS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53OUBSsdeNaLWBlJgsCmCf</t>
+          <t>6bKdh1YoDfUMe4mx8mZ3D1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6bKdh1YoDfUMe4mx8mZ3D1</t>
+          <t>1lWVWoreT4vPIEedV1XoNS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4jnhCiVeFkepeo6O52e5sN</t>
+          <t>5XVjNRubJUW0iPhhSWpLCj</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0ulqhE1zuEqnaZnzWWt6yS</t>
+          <t>4CpkoTOTs6scf3MxP8JmfV</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3IRg7GJWAq574gJ4KtO7xA</t>
+          <t>4ToEmT48oPH5erDitBeYf6</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5gxIJq36ODYOpBECJkHrar</t>
+          <t>3ST1SVHTxxiGodhUeASN3h</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>02zclmxRto3GAUBdtV7D8i</t>
+          <t>1oacjZb8pH6OmGQGAbMkso</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2VIe2TAMhIRhVwsOmo1cSs</t>
+          <t>5SgeKIyWWLz8iqE5O0XbZm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57iDDD9N9tTWe75x6qhStw</t>
+          <t>3IRg7GJWAq574gJ4KtO7xA</t>
         </is>
       </c>
     </row>
